--- a/Project_B/Assets/Excel/GameDB.xlsx
+++ b/Project_B/Assets/Excel/GameDB.xlsx
@@ -21,6 +21,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -29,59 +37,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 이름 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>characterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,14 +82,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -125,12 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -416,28 +396,26 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -445,13 +423,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -459,13 +437,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -473,13 +451,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -487,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -501,13 +479,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -515,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -529,13 +507,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -543,13 +521,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -557,27 +535,27 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1">
-        <v>59</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
